--- a/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>214_气场_Glamorous_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0511620101018120</v>
+        <v>0511620101018127</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,41 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>641_绿枫叶_maple leaf_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L15"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +619,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0511620101018127</v>
+        <v>05116201010181271541010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -559,9 +559,89 @@
         <v>10</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>3</v>
+      </c>
+      <c r="C16" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>688_山归来橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>440_火棘果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>816_山里红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>476_酸浆果_Physalis_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>354_桔叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>408_姜荷花 白_Curcuma white_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F24" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L25"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -619,7 +699,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05116201010181271541010</v>
+        <v>051162010101812715410105105101510510300</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
@@ -638,6 +638,9 @@
       <c r="C25" t="str">
         <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
       </c>
+      <c r="F25" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -699,7 +702,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>051162010101812715410105105101510510300</v>
+        <v>0511620101018127154101051051015105103020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -642,9 +642,86 @@
         <v>20</v>
       </c>
     </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F29" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F31" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>543_柔丽思红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L35"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -702,7 +779,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0511620101018127154101051051015105103020</v>
+        <v>05116201010181271541010510510151051030201051015515105100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
@@ -718,6 +718,9 @@
       <c r="C35" t="str">
         <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F35" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -779,7 +782,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05116201010181271541010510510151051030201051015515105100</v>
+        <v>051162010101812715410105105101510510302010510155151051015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -722,9 +722,95 @@
         <v>15</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>5</v>
+      </c>
+      <c r="C36" t="str">
+        <v>770_弯葱_undefined_undefined_10stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>6</v>
+      </c>
+      <c r="C37" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>7</v>
+      </c>
+      <c r="C43" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L45"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -782,7 +868,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>051162010101812715410105105101510510302010510155151051015</v>
+        <v>05116201010181271541010510510151051030201051015515105101520105510101015100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
@@ -807,6 +807,9 @@
       <c r="C45" t="str">
         <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
       </c>
+      <c r="F45" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -868,7 +871,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05116201010181271541010510510151051030201051015515105101520105510101015100</v>
+        <v>051162010101812715410105105101510510302010510155151051015201055101010151015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -811,9 +811,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>743_永生吊米红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L46"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -871,7 +879,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>051162010101812715410105105101510510302010510155151051015201055101010151015</v>
+        <v>05116201010181271541010510510151051030201051015515105101520105510101015101515</v>
       </c>
     </row>
   </sheetData>
